--- a/过程管理/会议记录1.0.xlsx
+++ b/过程管理/会议记录1.0.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HMH/胡明昊/研究生期间/课件/研一下/软工实验/我们的/17TeamB_blade/过程管理/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wxy\过程管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -129,7 +129,84 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分析IOC/路由/拦截器模块的代码体系结构，总结需求</t>
+    <t>构成需求文档的基本元素，并对概要说明和术语进行编写</t>
+    <rPh sb="0" eb="1">
+      <t>gz'ig</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qq</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wf'dh</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de'ji'bf</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yr'su</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bk</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dv</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gd'yc</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>uo'mk</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>he</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>uu'yu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>jb'xk</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>bm'xp</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析请求/响应/视图模块的代码体系结构，总结需求</t>
+    <rPh sb="0" eb="1">
+      <t>ff'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pw'vi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>uu'jv'ku</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hr'cy</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>mo'kk</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dd'ma</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ti'xi'jp'gz</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zs'jp</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>xu'qq</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析配置/数据库/缓存模块的代码体系结构，总结需求</t>
     <rPh sb="0" eb="1">
       <t>ff'xi</t>
     </rPh>
@@ -160,50 +237,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>构成需求文档的基本元素，并对概要说明和术语进行编写</t>
-    <rPh sb="0" eb="1">
-      <t>gz'ig</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xu'qq</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wf'dh</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de'ji'bf</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>yr'su</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>bk</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>dv</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>gd'yc</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>uo'mk</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>he</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>uu'yu</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>jb'xk</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>bm'xp</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析请求/响应/视图模块的代码体系结构，总结需求</t>
+    <t>分析IOC/路由/拦截器模块的代码体系结构，总结需求</t>
     <rPh sb="0" eb="1">
       <t>ff'xi</t>
     </rPh>
@@ -237,41 +271,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分析配置/数据库/缓存模块的代码体系结构，总结需求</t>
-    <rPh sb="0" eb="1">
-      <t>ff'xi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pw'vi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>uu'jv'ku</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>hr'cy</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>mo'kk</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>de</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>dd'ma</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ti'xi'jp'gz</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>zs'jp</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>xu'qq</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分配了接下来的任务，对Blade的模块结构划分进行了分析，</t>
+    <t>分配了接下来的任务，对Blade的模块结构划分进行了分析</t>
     <rPh sb="0" eb="1">
       <t>ff'pw</t>
     </rPh>
@@ -317,11 +317,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -428,6 +428,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -699,15 +702,16 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="8" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.84375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -718,7 +722,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -729,7 +733,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -742,7 +746,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="80" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -750,12 +754,12 @@
         <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="80" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -763,12 +767,12 @@
         <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="80" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -776,12 +780,12 @@
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="80" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -789,12 +793,12 @@
         <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="108" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
